--- a/data/trans_orig/P16A03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7712733E-ABE1-428A-94A6-AAC8FC60D02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35662E27-44CC-4A4B-B3BF-7983681A6244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DCB545F3-C73C-47E9-9D02-1B3944C3DA55}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{96D6CC23-356E-4D0C-8206-EBA2E4DF84F1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="446">
   <si>
     <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -80,1369 +80,1303 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,48%</t>
+    <t>1,51%</t>
   </si>
   <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
   </si>
   <si>
     <t>96,58%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
   </si>
   <si>
     <t>1,9%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
   </si>
   <si>
     <t>98,1%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
   </si>
   <si>
     <t>3,4%</t>
   </si>
   <si>
-    <t>4,12%</t>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
   </si>
   <si>
     <t>97,39%</t>
   </si>
   <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
   </si>
   <si>
     <t>7,05%</t>
   </si>
   <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
   </si>
   <si>
     <t>92,95%</t>
   </si>
   <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
+    <t>95,25%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
     <t>5,15%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
+    <t>5,82%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>3,28%</t>
+    <t>3,3%</t>
   </si>
   <si>
     <t>97,89%</t>
   </si>
   <si>
-    <t>98,35%</t>
-  </si>
-  <si>
     <t>94,85%</t>
   </si>
   <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
+    <t>94,18%</t>
   </si>
   <si>
     <t>96,28%</t>
   </si>
   <si>
-    <t>96,72%</t>
+    <t>96,7%</t>
   </si>
 </sst>
 </file>
@@ -1854,7 +1788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE53A761-2527-473D-9818-43CD0A5B3C25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BFCC84-8EE5-4C18-8BFB-68329DE49B86}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2011,16 +1945,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>496</v>
@@ -2029,13 +1963,13 @@
         <v>491333</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>470</v>
@@ -2044,13 +1978,13 @@
         <v>448398</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>966</v>
@@ -2059,13 +1993,13 @@
         <v>939731</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,13 +2014,13 @@
         <v>494064</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>489</v>
@@ -2095,13 +2029,13 @@
         <v>467489</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>988</v>
@@ -2110,18 +2044,18 @@
         <v>961553</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2133,13 +2067,13 @@
         <v>5562</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -2148,13 +2082,13 @@
         <v>28783</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>33</v>
@@ -2163,19 +2097,19 @@
         <v>34346</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>697</v>
@@ -2184,13 +2118,13 @@
         <v>729927</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>564</v>
@@ -2199,13 +2133,13 @@
         <v>596711</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>1261</v>
@@ -2214,7 +2148,7 @@
         <v>1326636</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>46</v>
@@ -2235,13 +2169,13 @@
         <v>735489</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>591</v>
@@ -2250,13 +2184,13 @@
         <v>625494</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1294</v>
@@ -2265,13 +2199,13 @@
         <v>1360982</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,7 +2264,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>599</v>
@@ -2390,13 +2324,13 @@
         <v>637649</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>658</v>
@@ -2405,13 +2339,13 @@
         <v>689744</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1270</v>
@@ -2420,13 +2354,13 @@
         <v>1327394</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,10 +2380,10 @@
         <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -2458,13 +2392,13 @@
         <v>21248</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -2473,19 +2407,19 @@
         <v>29945</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>476</v>
@@ -2494,13 +2428,13 @@
         <v>510450</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="H14" s="7">
         <v>481</v>
@@ -2509,13 +2443,13 @@
         <v>494394</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="M14" s="7">
         <v>957</v>
@@ -2524,13 +2458,13 @@
         <v>1004844</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,13 +2479,13 @@
         <v>519147</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>502</v>
@@ -2560,13 +2494,13 @@
         <v>515642</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>986</v>
@@ -2575,18 +2509,18 @@
         <v>1034789</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2598,13 +2532,13 @@
         <v>12563</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -2613,13 +2547,13 @@
         <v>27417</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -2628,19 +2562,19 @@
         <v>39980</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>381</v>
@@ -2649,13 +2583,13 @@
         <v>374147</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>369</v>
@@ -2664,13 +2598,13 @@
         <v>376569</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>750</v>
@@ -2679,13 +2613,13 @@
         <v>750716</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,13 +2634,13 @@
         <v>386710</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>396</v>
@@ -2715,13 +2649,13 @@
         <v>403986</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>788</v>
@@ -2730,18 +2664,18 @@
         <v>790696</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2753,13 +2687,13 @@
         <v>29858</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>62</v>
@@ -2768,13 +2702,13 @@
         <v>61019</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>90</v>
@@ -2783,19 +2717,19 @@
         <v>90876</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>495</v>
@@ -2804,13 +2738,13 @@
         <v>472608</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>599</v>
@@ -2819,13 +2753,13 @@
         <v>615823</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>1094</v>
@@ -2834,13 +2768,13 @@
         <v>1088432</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,13 +2789,13 @@
         <v>502466</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>661</v>
@@ -2870,13 +2804,13 @@
         <v>676842</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>1184</v>
@@ -2885,13 +2819,13 @@
         <v>1179308</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,13 +2842,13 @@
         <v>73277</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>178</v>
@@ -2923,13 +2857,13 @@
         <v>179686</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>247</v>
@@ -2938,34 +2872,34 @@
         <v>252963</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>3144</v>
       </c>
       <c r="D23" s="7">
-        <v>3202248</v>
+        <v>3202249</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H23" s="7">
         <v>3119</v>
@@ -2974,28 +2908,28 @@
         <v>3199512</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M23" s="7">
         <v>6263</v>
       </c>
       <c r="N23" s="7">
-        <v>6401759</v>
+        <v>6401760</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,16 +2941,16 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>3297</v>
@@ -3025,33 +2959,33 @@
         <v>3379198</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3073,7 +3007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121F39CE-6A7A-4FAE-8937-6A18DD382E04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C8D160-B493-4884-8938-56ABB5F6856F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3090,7 +3024,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3197,13 +3131,13 @@
         <v>3967</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -3212,13 +3146,13 @@
         <v>8918</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -3227,19 +3161,19 @@
         <v>12884</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>441</v>
@@ -3248,13 +3182,13 @@
         <v>449138</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H5" s="7">
         <v>411</v>
@@ -3263,13 +3197,13 @@
         <v>420421</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M5" s="7">
         <v>852</v>
@@ -3278,13 +3212,13 @@
         <v>869561</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3299,13 +3233,13 @@
         <v>453105</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>420</v>
@@ -3314,13 +3248,13 @@
         <v>429339</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>865</v>
@@ -3329,18 +3263,18 @@
         <v>882445</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3352,13 +3286,13 @@
         <v>9553</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -3367,13 +3301,13 @@
         <v>33265</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -3382,19 +3316,19 @@
         <v>42818</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>658</v>
@@ -3403,13 +3337,13 @@
         <v>676685</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H8" s="7">
         <v>539</v>
@@ -3418,13 +3352,13 @@
         <v>575949</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M8" s="7">
         <v>1197</v>
@@ -3433,13 +3367,13 @@
         <v>1252633</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3388,13 @@
         <v>686238</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>570</v>
@@ -3469,13 +3403,13 @@
         <v>609214</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1236</v>
@@ -3484,13 +3418,13 @@
         <v>1295451</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3441,13 @@
         <v>4905</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -3522,13 +3456,13 @@
         <v>40482</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -3537,19 +3471,19 @@
         <v>45387</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>644</v>
@@ -3558,13 +3492,13 @@
         <v>675149</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="H11" s="7">
         <v>625</v>
@@ -3573,13 +3507,13 @@
         <v>665453</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>97</v>
+        <v>186</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M11" s="7">
         <v>1269</v>
@@ -3588,13 +3522,13 @@
         <v>1340602</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,13 +3543,13 @@
         <v>680054</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>663</v>
@@ -3624,13 +3558,13 @@
         <v>705935</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1312</v>
@@ -3639,13 +3573,13 @@
         <v>1385989</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,13 +3596,13 @@
         <v>5296</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -3677,13 +3611,13 @@
         <v>27510</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -3692,19 +3626,19 @@
         <v>32807</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>130</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>543</v>
@@ -3713,13 +3647,13 @@
         <v>609321</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H14" s="7">
         <v>512</v>
@@ -3728,13 +3662,13 @@
         <v>584483</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M14" s="7">
         <v>1055</v>
@@ -3743,13 +3677,13 @@
         <v>1193803</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3698,13 @@
         <v>614617</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>535</v>
@@ -3779,13 +3713,13 @@
         <v>611993</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1083</v>
@@ -3794,18 +3728,18 @@
         <v>1226610</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3847,19 +3781,19 @@
         <v>29955</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>389</v>
@@ -3868,13 +3802,13 @@
         <v>425403</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H17" s="7">
         <v>380</v>
@@ -3883,13 +3817,13 @@
         <v>420787</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M17" s="7">
         <v>769</v>
@@ -3898,13 +3832,13 @@
         <v>846189</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,13 +3853,13 @@
         <v>428344</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>406</v>
@@ -3934,13 +3868,13 @@
         <v>447800</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>798</v>
@@ -3949,18 +3883,18 @@
         <v>876144</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3972,13 +3906,13 @@
         <v>18893</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
@@ -3987,13 +3921,13 @@
         <v>75841</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M19" s="7">
         <v>83</v>
@@ -4002,19 +3936,19 @@
         <v>94734</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>487</v>
@@ -4023,13 +3957,13 @@
         <v>537938</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H20" s="7">
         <v>623</v>
@@ -4038,13 +3972,13 @@
         <v>663971</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M20" s="7">
         <v>1110</v>
@@ -4053,13 +3987,13 @@
         <v>1201909</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,13 +4008,13 @@
         <v>556831</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>691</v>
@@ -4089,13 +4023,13 @@
         <v>739812</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>1193</v>
@@ -4104,13 +4038,13 @@
         <v>1296643</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,13 +4061,13 @@
         <v>45556</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H22" s="7">
         <v>195</v>
@@ -4142,13 +4076,13 @@
         <v>213030</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M22" s="7">
         <v>235</v>
@@ -4157,19 +4091,19 @@
         <v>258585</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>166</v>
+        <v>51</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>246</v>
+        <v>83</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>3162</v>
@@ -4178,13 +4112,13 @@
         <v>3373632</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H23" s="7">
         <v>3090</v>
@@ -4193,13 +4127,13 @@
         <v>3331064</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M23" s="7">
         <v>6252</v>
@@ -4208,13 +4142,13 @@
         <v>6704697</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4163,13 @@
         <v>3419188</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>3285</v>
@@ -4244,13 +4178,13 @@
         <v>3544094</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>6487</v>
@@ -4259,18 +4193,18 @@
         <v>6963282</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4292,7 +4226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2550B064-4633-49C1-92E0-E14BE71C2C6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C465B5E1-ACDA-4DD6-9F27-52A6E719F77C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4416,7 +4350,7 @@
         <v>932</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>257</v>
@@ -4452,13 +4386,13 @@
         <v>263</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>264</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>392</v>
@@ -4467,13 +4401,13 @@
         <v>418531</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H5" s="7">
         <v>392</v>
@@ -4482,13 +4416,13 @@
         <v>384197</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M5" s="7">
         <v>784</v>
@@ -4497,13 +4431,13 @@
         <v>802728</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,13 +4452,13 @@
         <v>419463</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>404</v>
@@ -4533,13 +4467,13 @@
         <v>395755</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>797</v>
@@ -4548,18 +4482,18 @@
         <v>815218</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4571,13 +4505,13 @@
         <v>5947</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>274</v>
+        <v>193</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -4586,13 +4520,13 @@
         <v>14998</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -4601,19 +4535,19 @@
         <v>20944</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>561</v>
@@ -4622,13 +4556,13 @@
         <v>584549</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>283</v>
+        <v>202</v>
       </c>
       <c r="H8" s="7">
         <v>563</v>
@@ -4637,13 +4571,13 @@
         <v>548546</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>269</v>
       </c>
       <c r="M8" s="7">
         <v>1124</v>
@@ -4652,13 +4586,13 @@
         <v>1133096</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,13 +4607,13 @@
         <v>590496</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>579</v>
@@ -4688,13 +4622,13 @@
         <v>563544</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1146</v>
@@ -4703,13 +4637,13 @@
         <v>1154040</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,13 +4660,13 @@
         <v>4095</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -4744,10 +4678,10 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>126</v>
+        <v>288</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -4756,19 +4690,19 @@
         <v>31067</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>290</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>291</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>87</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>634</v>
@@ -4792,13 +4726,13 @@
         <v>634414</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>296</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>134</v>
+        <v>297</v>
       </c>
       <c r="M11" s="7">
         <v>1272</v>
@@ -4807,13 +4741,13 @@
         <v>1299416</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>179</v>
+        <v>298</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>96</v>
+        <v>299</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>188</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4762,13 @@
         <v>669097</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>665</v>
@@ -4843,13 +4777,13 @@
         <v>661386</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1303</v>
@@ -4858,13 +4792,13 @@
         <v>1330483</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,13 +4815,13 @@
         <v>6731</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>299</v>
+        <v>53</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -4896,13 +4830,13 @@
         <v>26029</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -4911,19 +4845,19 @@
         <v>32760</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>576</v>
@@ -4932,13 +4866,13 @@
         <v>639317</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>305</v>
+        <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H14" s="7">
         <v>579</v>
@@ -4947,28 +4881,28 @@
         <v>623048</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>239</v>
+        <v>312</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="M14" s="7">
         <v>1155</v>
       </c>
       <c r="N14" s="7">
-        <v>1262365</v>
+        <v>1262366</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,13 +4917,13 @@
         <v>646048</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>602</v>
@@ -4998,33 +4932,33 @@
         <v>649077</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5036,13 +4970,13 @@
         <v>7624</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -5051,13 +4985,13 @@
         <v>19527</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>243</v>
+        <v>320</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -5066,19 +5000,19 @@
         <v>27151</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>317</v>
+        <v>56</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>418</v>
@@ -5087,13 +5021,13 @@
         <v>470294</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>321</v>
+        <v>216</v>
       </c>
       <c r="H17" s="7">
         <v>415</v>
@@ -5102,13 +5036,13 @@
         <v>477322</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>251</v>
+        <v>325</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M17" s="7">
         <v>833</v>
@@ -5117,13 +5051,13 @@
         <v>947616</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>326</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5138,13 +5072,13 @@
         <v>477918</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>433</v>
@@ -5153,13 +5087,13 @@
         <v>496849</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>857</v>
@@ -5168,18 +5102,18 @@
         <v>974767</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5191,13 +5125,13 @@
         <v>18015</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>223</v>
+        <v>330</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -5206,13 +5140,13 @@
         <v>48001</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>330</v>
+        <v>195</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>331</v>
+        <v>228</v>
       </c>
       <c r="M19" s="7">
         <v>61</v>
@@ -5221,19 +5155,19 @@
         <v>66016</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>607</v>
@@ -5242,13 +5176,13 @@
         <v>573313</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>233</v>
+        <v>338</v>
       </c>
       <c r="H20" s="7">
         <v>614</v>
@@ -5257,13 +5191,13 @@
         <v>729930</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>339</v>
+        <v>203</v>
       </c>
       <c r="M20" s="7">
         <v>1221</v>
@@ -5293,13 +5227,13 @@
         <v>591328</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>655</v>
@@ -5308,13 +5242,13 @@
         <v>777931</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>1282</v>
@@ -5323,13 +5257,13 @@
         <v>1369259</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,7 +5286,7 @@
         <v>344</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="H22" s="7">
         <v>137</v>
@@ -5379,7 +5313,7 @@
         <v>348</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>349</v>
@@ -5388,7 +5322,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>3188</v>
@@ -5400,7 +5334,7 @@
         <v>350</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>351</v>
@@ -5433,7 +5367,7 @@
         <v>356</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,13 +5382,13 @@
         <v>3394350</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>3338</v>
@@ -5463,13 +5397,13 @@
         <v>3544542</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>6569</v>
@@ -5478,18 +5412,18 @@
         <v>6938892</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5511,7 +5445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA40A2E6-96B2-4F60-B7D0-8EDAD2B46733}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8B8B6D-A1BC-4174-A38C-6D09E6BA8563}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5656,7 +5590,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>361</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -5665,19 +5599,19 @@
         <v>9192</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>298</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>363</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>171</v>
@@ -5686,13 +5620,13 @@
         <v>375940</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>365</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H5" s="7">
         <v>203</v>
@@ -5701,13 +5635,13 @@
         <v>347504</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>367</v>
+        <v>133</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>374</v>
@@ -5716,13 +5650,13 @@
         <v>723444</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>369</v>
+        <v>189</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>306</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5737,13 +5671,13 @@
         <v>377679</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>207</v>
@@ -5752,13 +5686,13 @@
         <v>354957</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>379</v>
@@ -5767,18 +5701,18 @@
         <v>732636</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5790,13 +5724,13 @@
         <v>1877</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -5805,13 +5739,13 @@
         <v>14370</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>374</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -5820,19 +5754,19 @@
         <v>16248</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>302</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>373</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>299</v>
@@ -5841,13 +5775,13 @@
         <v>426519</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H8" s="7">
         <v>446</v>
@@ -5856,13 +5790,13 @@
         <v>484207</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>382</v>
+        <v>22</v>
       </c>
       <c r="M8" s="7">
         <v>745</v>
@@ -5871,13 +5805,13 @@
         <v>910725</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>310</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,13 +5826,13 @@
         <v>428396</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>460</v>
@@ -5907,13 +5841,13 @@
         <v>498577</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>762</v>
@@ -5922,13 +5856,13 @@
         <v>926973</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,13 +5879,13 @@
         <v>7010</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -5960,13 +5894,13 @@
         <v>15031</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -5975,19 +5909,19 @@
         <v>22040</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>540</v>
@@ -5996,13 +5930,13 @@
         <v>550242</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="H11" s="7">
         <v>821</v>
@@ -6011,13 +5945,13 @@
         <v>568445</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="M11" s="7">
         <v>1361</v>
@@ -6026,13 +5960,13 @@
         <v>1118687</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,13 +5981,13 @@
         <v>557252</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>846</v>
@@ -6062,13 +5996,13 @@
         <v>583476</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1392</v>
@@ -6077,13 +6011,13 @@
         <v>1140727</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,13 +6034,13 @@
         <v>14822</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>401</v>
+        <v>271</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>402</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -6115,13 +6049,13 @@
         <v>37517</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="M13" s="7">
         <v>76</v>
@@ -6130,19 +6064,19 @@
         <v>52339</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>406</v>
+        <v>346</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>651</v>
@@ -6151,13 +6085,13 @@
         <v>709168</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>410</v>
+        <v>171</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>411</v>
+        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>1079</v>
@@ -6166,28 +6100,28 @@
         <v>709744</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="M14" s="7">
         <v>1730</v>
       </c>
       <c r="N14" s="7">
-        <v>1418913</v>
+        <v>1418912</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>415</v>
+        <v>354</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,13 +6136,13 @@
         <v>723990</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>1141</v>
@@ -6217,33 +6151,33 @@
         <v>747261</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6255,13 +6189,13 @@
         <v>22137</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>419</v>
+        <v>290</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="H16" s="7">
         <v>72</v>
@@ -6270,13 +6204,13 @@
         <v>40704</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>421</v>
+        <v>247</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="M16" s="7">
         <v>98</v>
@@ -6285,19 +6219,19 @@
         <v>62841</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>425</v>
+        <v>128</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>426</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>636</v>
@@ -6306,13 +6240,13 @@
         <v>576949</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>429</v>
+        <v>298</v>
       </c>
       <c r="H17" s="7">
         <v>928</v>
@@ -6321,13 +6255,13 @@
         <v>552872</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>430</v>
+        <v>253</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="M17" s="7">
         <v>1564</v>
@@ -6336,13 +6270,13 @@
         <v>1129821</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>434</v>
+        <v>25</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>435</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6357,13 +6291,13 @@
         <v>599086</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>1000</v>
@@ -6372,13 +6306,13 @@
         <v>593576</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>1662</v>
@@ -6387,18 +6321,18 @@
         <v>1192662</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6410,13 +6344,13 @@
         <v>23958</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H19" s="7">
         <v>151</v>
@@ -6425,13 +6359,13 @@
         <v>80590</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="M19" s="7">
         <v>190</v>
@@ -6440,19 +6374,19 @@
         <v>104548</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>988</v>
@@ -6461,13 +6395,13 @@
         <v>673276</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="H20" s="7">
         <v>1554</v>
@@ -6476,13 +6410,13 @@
         <v>944425</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="M20" s="7">
         <v>2542</v>
@@ -6491,13 +6425,13 @@
         <v>1617701</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6512,13 +6446,13 @@
         <v>697234</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>1705</v>
@@ -6527,13 +6461,13 @@
         <v>1025015</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>2732</v>
@@ -6542,13 +6476,13 @@
         <v>1722249</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6565,13 +6499,13 @@
         <v>71542</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>455</v>
+        <v>68</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>36</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>328</v>
@@ -6580,13 +6514,13 @@
         <v>195666</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>457</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="M22" s="7">
         <v>417</v>
@@ -6595,34 +6529,34 @@
         <v>267209</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>3285</v>
       </c>
       <c r="D23" s="7">
-        <v>3312094</v>
+        <v>3312095</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>462</v>
+        <v>75</v>
       </c>
       <c r="H23" s="7">
         <v>5031</v>
@@ -6631,13 +6565,13 @@
         <v>3607196</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>465</v>
+        <v>134</v>
       </c>
       <c r="M23" s="7">
         <v>8316</v>
@@ -6646,13 +6580,13 @@
         <v>6919289</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6664,16 +6598,16 @@
         <v>3374</v>
       </c>
       <c r="D24" s="7">
-        <v>3383636</v>
+        <v>3383637</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>5359</v>
@@ -6682,13 +6616,13 @@
         <v>3802862</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>8733</v>
@@ -6697,18 +6631,18 @@
         <v>7186498</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A03-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35662E27-44CC-4A4B-B3BF-7983681A6244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46F0C260-AE8A-4BF2-9AC4-F81B8E30EF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{96D6CC23-356E-4D0C-8206-EBA2E4DF84F1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5B046DE3-E808-407A-BCA5-03F1D34F0C83}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="454">
   <si>
     <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -86,1291 +86,1315 @@
     <t>4,08%</t>
   </si>
   <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
     <t>2,52%</t>
   </si>
   <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
     <t>6,39%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
   </si>
   <si>
     <t>93,61%</t>
   </si>
   <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>95,55%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
   </si>
   <si>
     <t>96,28%</t>
@@ -1788,7 +1812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BFCC84-8EE5-4C18-8BFB-68329DE49B86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3AADF0-3790-4442-BF86-8287A750D5D0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2097,13 +2121,13 @@
         <v>34346</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2118,13 +2142,13 @@
         <v>729927</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>564</v>
@@ -2133,13 +2157,13 @@
         <v>596711</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1261</v>
@@ -2148,13 +2172,13 @@
         <v>1326636</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2210,7 +2234,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2222,13 +2246,13 @@
         <v>13866</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -2237,13 +2261,13 @@
         <v>22128</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -2252,13 +2276,13 @@
         <v>35995</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,13 +2297,13 @@
         <v>623783</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>636</v>
@@ -2288,13 +2312,13 @@
         <v>667616</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1235</v>
@@ -2303,13 +2327,13 @@
         <v>1291399</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,7 +2389,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2377,13 +2401,13 @@
         <v>8697</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -2392,13 +2416,13 @@
         <v>21248</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -2407,13 +2431,13 @@
         <v>29945</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2452,13 @@
         <v>510450</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>481</v>
@@ -2443,13 +2467,13 @@
         <v>494394</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>957</v>
@@ -2458,13 +2482,13 @@
         <v>1004844</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,7 +2544,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2532,13 +2556,13 @@
         <v>12563</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -2547,13 +2571,13 @@
         <v>27417</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -2562,13 +2586,13 @@
         <v>39980</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2607,13 @@
         <v>374147</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>369</v>
@@ -2598,13 +2622,13 @@
         <v>376569</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>750</v>
@@ -2613,13 +2637,13 @@
         <v>750716</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,7 +2699,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2687,13 +2711,13 @@
         <v>29858</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>62</v>
@@ -2702,13 +2726,13 @@
         <v>61019</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>90</v>
@@ -2717,13 +2741,13 @@
         <v>90876</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2762,13 @@
         <v>472608</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>599</v>
@@ -2753,13 +2777,13 @@
         <v>615823</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>1094</v>
@@ -2768,13 +2792,13 @@
         <v>1088432</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,13 +2866,13 @@
         <v>73277</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>178</v>
@@ -2857,13 +2881,13 @@
         <v>179686</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>247</v>
@@ -2872,13 +2896,13 @@
         <v>252963</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,16 +2914,16 @@
         <v>3144</v>
       </c>
       <c r="D23" s="7">
-        <v>3202249</v>
+        <v>3202248</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>3119</v>
@@ -2908,13 +2932,13 @@
         <v>3199512</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>6263</v>
@@ -2923,13 +2947,13 @@
         <v>6401760</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,7 +2965,7 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2985,7 +3009,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3007,7 +3031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C8D160-B493-4884-8938-56ABB5F6856F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5443FB19-9612-4838-BDB2-1EA2D1F893B5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3024,7 +3048,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3131,13 +3155,13 @@
         <v>3967</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -3146,13 +3170,13 @@
         <v>8918</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -3161,13 +3185,13 @@
         <v>12884</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,13 +3206,13 @@
         <v>449138</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H5" s="7">
         <v>411</v>
@@ -3197,13 +3221,13 @@
         <v>420421</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M5" s="7">
         <v>852</v>
@@ -3212,13 +3236,13 @@
         <v>869561</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3310,13 @@
         <v>9553</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -3301,13 +3325,13 @@
         <v>33265</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -3316,13 +3340,13 @@
         <v>42818</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,13 +3361,13 @@
         <v>676685</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>539</v>
@@ -3352,13 +3376,13 @@
         <v>575949</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>1197</v>
@@ -3367,13 +3391,13 @@
         <v>1252633</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,7 +3453,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3441,13 +3465,13 @@
         <v>4905</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -3456,13 +3480,13 @@
         <v>40482</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -3471,13 +3495,13 @@
         <v>45387</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,13 +3516,13 @@
         <v>675149</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>185</v>
+        <v>43</v>
       </c>
       <c r="H11" s="7">
         <v>625</v>
@@ -3507,13 +3531,13 @@
         <v>665453</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>1269</v>
@@ -3522,13 +3546,13 @@
         <v>1340602</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,7 +3608,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3596,13 +3620,13 @@
         <v>5296</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -3611,13 +3635,13 @@
         <v>27510</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -3626,13 +3650,13 @@
         <v>32807</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,13 +3671,13 @@
         <v>609321</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>512</v>
@@ -3662,13 +3686,13 @@
         <v>584483</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>1055</v>
@@ -3677,13 +3701,13 @@
         <v>1193803</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>131</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,7 +3763,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3751,13 +3775,13 @@
         <v>2941</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -3766,13 +3790,13 @@
         <v>27013</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -3781,13 +3805,13 @@
         <v>29955</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,13 +3826,13 @@
         <v>425403</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H17" s="7">
         <v>380</v>
@@ -3817,13 +3841,13 @@
         <v>420787</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M17" s="7">
         <v>769</v>
@@ -3832,13 +3856,13 @@
         <v>846189</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,7 +3918,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3906,13 +3930,13 @@
         <v>18893</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
@@ -3921,13 +3945,13 @@
         <v>75841</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M19" s="7">
         <v>83</v>
@@ -3936,13 +3960,13 @@
         <v>94734</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,13 +3981,13 @@
         <v>537938</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>235</v>
+        <v>87</v>
       </c>
       <c r="H20" s="7">
         <v>623</v>
@@ -3972,13 +3996,13 @@
         <v>663971</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M20" s="7">
         <v>1110</v>
@@ -3987,13 +4011,13 @@
         <v>1201909</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4085,13 @@
         <v>45556</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H22" s="7">
         <v>195</v>
@@ -4076,13 +4100,13 @@
         <v>213030</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M22" s="7">
         <v>235</v>
@@ -4091,13 +4115,13 @@
         <v>258585</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4136,13 @@
         <v>3373632</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H23" s="7">
         <v>3090</v>
@@ -4127,28 +4151,28 @@
         <v>3331064</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M23" s="7">
         <v>6252</v>
       </c>
       <c r="N23" s="7">
-        <v>6704697</v>
+        <v>6704696</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,7 +4214,7 @@
         <v>6487</v>
       </c>
       <c r="N24" s="7">
-        <v>6963282</v>
+        <v>6963281</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4204,7 +4228,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4226,7 +4250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C465B5E1-ACDA-4DD6-9F27-52A6E719F77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E732C2B-89AD-48F7-9B97-F826664D7C2D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4243,7 +4267,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4350,13 +4374,13 @@
         <v>932</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4365,13 +4389,13 @@
         <v>11558</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -4380,13 +4404,13 @@
         <v>12490</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,13 +4425,13 @@
         <v>418531</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="H5" s="7">
         <v>392</v>
@@ -4416,13 +4440,13 @@
         <v>384197</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="M5" s="7">
         <v>784</v>
@@ -4431,13 +4455,13 @@
         <v>802728</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>275</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,13 +4529,13 @@
         <v>5947</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>272</v>
+        <v>51</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -4520,13 +4544,13 @@
         <v>14998</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -4535,13 +4559,13 @@
         <v>20944</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>275</v>
+        <v>201</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>276</v>
+        <v>52</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,13 +4580,13 @@
         <v>584549</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>279</v>
+        <v>60</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>202</v>
+        <v>283</v>
       </c>
       <c r="H8" s="7">
         <v>563</v>
@@ -4571,13 +4595,13 @@
         <v>548546</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="M8" s="7">
         <v>1124</v>
@@ -4586,13 +4610,13 @@
         <v>1133096</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>282</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>284</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,7 +4672,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4660,13 +4684,13 @@
         <v>4095</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>287</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -4678,10 +4702,10 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>289</v>
+        <v>215</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -4693,10 +4717,10 @@
         <v>290</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,13 +4735,13 @@
         <v>665002</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H11" s="7">
         <v>638</v>
@@ -4729,10 +4753,10 @@
         <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M11" s="7">
         <v>1272</v>
@@ -4741,13 +4765,13 @@
         <v>1299416</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,7 +4827,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4815,13 +4839,13 @@
         <v>6731</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>299</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -4830,13 +4854,13 @@
         <v>26029</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -4845,13 +4869,13 @@
         <v>32760</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,13 +4890,13 @@
         <v>639317</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>307</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H14" s="7">
         <v>579</v>
@@ -4881,28 +4905,28 @@
         <v>623048</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M14" s="7">
         <v>1155</v>
       </c>
       <c r="N14" s="7">
-        <v>1262366</v>
+        <v>1262365</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,7 +4968,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4958,7 +4982,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4970,13 +4994,13 @@
         <v>7624</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>208</v>
+        <v>315</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -4985,13 +5009,13 @@
         <v>19527</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -5000,13 +5024,13 @@
         <v>27151</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,13 +5045,13 @@
         <v>470294</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H17" s="7">
         <v>415</v>
@@ -5051,13 +5075,13 @@
         <v>947616</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,7 +5137,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5125,13 +5149,13 @@
         <v>18015</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -5140,13 +5164,13 @@
         <v>48001</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M19" s="7">
         <v>61</v>
@@ -5176,13 +5200,13 @@
         <v>573313</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>337</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>338</v>
+        <v>204</v>
       </c>
       <c r="H20" s="7">
         <v>614</v>
@@ -5191,13 +5215,13 @@
         <v>729930</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M20" s="7">
         <v>1221</v>
@@ -5286,7 +5310,7 @@
         <v>344</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="H22" s="7">
         <v>137</v>
@@ -5313,10 +5337,10 @@
         <v>348</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>163</v>
+        <v>349</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,13 +5355,13 @@
         <v>3351007</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H23" s="7">
         <v>3201</v>
@@ -5346,13 +5370,13 @@
         <v>3397457</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M23" s="7">
         <v>6389</v>
@@ -5361,13 +5385,13 @@
         <v>6748464</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>173</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,7 +5447,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5445,7 +5469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8B8B6D-A1BC-4174-A38C-6D09E6BA8563}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D74900-FB29-4D16-8FAA-A88276C66B82}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5462,7 +5486,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5569,13 +5593,13 @@
         <v>1739</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -5584,13 +5608,13 @@
         <v>7453</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>363</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -5599,13 +5623,13 @@
         <v>9192</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,13 +5644,13 @@
         <v>375940</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="H5" s="7">
         <v>203</v>
@@ -5635,10 +5659,10 @@
         <v>347504</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>369</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -5650,13 +5674,13 @@
         <v>723444</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,13 +5748,13 @@
         <v>1877</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>370</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -5739,13 +5763,13 @@
         <v>14370</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -5754,13 +5778,13 @@
         <v>16248</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>376</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,13 +5799,13 @@
         <v>426519</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>376</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H8" s="7">
         <v>446</v>
@@ -5790,10 +5814,10 @@
         <v>484207</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>22</v>
@@ -5805,13 +5829,13 @@
         <v>910725</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>383</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,7 +5891,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5879,13 +5903,13 @@
         <v>7010</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>383</v>
+        <v>15</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -5894,13 +5918,13 @@
         <v>15031</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>383</v>
+        <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -5909,13 +5933,13 @@
         <v>22040</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,13 +5954,13 @@
         <v>550242</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>390</v>
+        <v>26</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H11" s="7">
         <v>821</v>
@@ -5945,13 +5969,13 @@
         <v>568445</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>390</v>
+        <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M11" s="7">
         <v>1361</v>
@@ -5960,13 +5984,13 @@
         <v>1118687</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6022,7 +6046,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6034,13 +6058,13 @@
         <v>14822</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -6049,13 +6073,13 @@
         <v>37517</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M13" s="7">
         <v>76</v>
@@ -6064,13 +6088,13 @@
         <v>52339</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>346</v>
+        <v>402</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,13 +6109,13 @@
         <v>709168</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H14" s="7">
         <v>1079</v>
@@ -6100,13 +6124,13 @@
         <v>709744</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="M14" s="7">
         <v>1730</v>
@@ -6115,13 +6139,13 @@
         <v>1418912</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,7 +6201,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6189,13 +6213,13 @@
         <v>22137</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>408</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>290</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H16" s="7">
         <v>72</v>
@@ -6204,13 +6228,13 @@
         <v>40704</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>247</v>
+        <v>413</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M16" s="7">
         <v>98</v>
@@ -6219,13 +6243,13 @@
         <v>62841</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>128</v>
+        <v>417</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>16</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,13 +6264,13 @@
         <v>576949</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>413</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H17" s="7">
         <v>928</v>
@@ -6255,13 +6279,13 @@
         <v>552872</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>253</v>
+        <v>420</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="M17" s="7">
         <v>1564</v>
@@ -6270,13 +6294,13 @@
         <v>1129821</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>25</v>
+        <v>424</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>136</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,7 +6356,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6344,13 +6368,13 @@
         <v>23958</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="H19" s="7">
         <v>151</v>
@@ -6359,13 +6383,13 @@
         <v>80590</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="M19" s="7">
         <v>190</v>
@@ -6374,13 +6398,13 @@
         <v>104548</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>424</v>
+        <v>335</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6395,13 +6419,13 @@
         <v>673276</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="H20" s="7">
         <v>1554</v>
@@ -6410,13 +6434,13 @@
         <v>944425</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="M20" s="7">
         <v>2542</v>
@@ -6425,13 +6449,13 @@
         <v>1617701</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>433</v>
+        <v>341</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,13 +6523,13 @@
         <v>71542</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="H22" s="7">
         <v>328</v>
@@ -6514,13 +6538,13 @@
         <v>195666</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>444</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="M22" s="7">
         <v>417</v>
@@ -6529,13 +6553,13 @@
         <v>267209</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,13 +6574,13 @@
         <v>3312095</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H23" s="7">
         <v>5031</v>
@@ -6565,13 +6589,13 @@
         <v>3607196</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>451</v>
       </c>
       <c r="M23" s="7">
         <v>8316</v>
@@ -6580,13 +6604,13 @@
         <v>6919289</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6642,7 +6666,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46F0C260-AE8A-4BF2-9AC4-F81B8E30EF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11FDEEF6-A035-4B5D-8A43-69554E154F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5B046DE3-E808-407A-BCA5-03F1D34F0C83}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB205831-58D9-4800-B610-DABC89379A67}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="468">
   <si>
     <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,55%</t>
@@ -80,1327 +80,1369 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,51%</t>
+    <t>1,48%</t>
   </si>
   <si>
     <t>4,08%</t>
   </si>
   <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
   </si>
   <si>
     <t>97,42%</t>
   </si>
   <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
   <si>
     <t>3,7%</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
   </si>
   <si>
     <t>96,3%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
   </si>
   <si>
     <t>95,68%</t>
   </si>
   <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
   </si>
   <si>
     <t>93,93%</t>
   </si>
   <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
+    <t>1,65%</t>
+  </si>
+  <si>
     <t>5,15%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>3,3%</t>
+    <t>3,28%</t>
   </si>
   <si>
     <t>97,89%</t>
   </si>
   <si>
+    <t>98,35%</t>
+  </si>
+  <si>
     <t>94,85%</t>
   </si>
   <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
   </si>
   <si>
     <t>96,28%</t>
   </si>
   <si>
-    <t>96,7%</t>
+    <t>96,72%</t>
   </si>
 </sst>
 </file>
@@ -1812,7 +1854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3AADF0-3790-4442-BF86-8287A750D5D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558AB173-F575-4258-8E36-0D5998F337BA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1969,16 +2011,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>496</v>
@@ -1987,13 +2029,13 @@
         <v>491333</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>470</v>
@@ -2002,13 +2044,13 @@
         <v>448398</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>966</v>
@@ -2017,13 +2059,13 @@
         <v>939731</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2038,13 +2080,13 @@
         <v>494064</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>489</v>
@@ -2053,13 +2095,13 @@
         <v>467489</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>988</v>
@@ -2068,18 +2110,18 @@
         <v>961553</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2091,13 +2133,13 @@
         <v>5562</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -2106,13 +2148,13 @@
         <v>28783</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>33</v>
@@ -2121,19 +2163,19 @@
         <v>34346</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>697</v>
@@ -2142,13 +2184,13 @@
         <v>729927</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>564</v>
@@ -2157,13 +2199,13 @@
         <v>596711</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1261</v>
@@ -2172,13 +2214,13 @@
         <v>1326636</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,13 +2235,13 @@
         <v>735489</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>591</v>
@@ -2208,13 +2250,13 @@
         <v>625494</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1294</v>
@@ -2223,18 +2265,18 @@
         <v>1360982</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2246,13 +2288,13 @@
         <v>13866</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -2261,13 +2303,13 @@
         <v>22128</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -2276,19 +2318,19 @@
         <v>35995</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>599</v>
@@ -2297,13 +2339,13 @@
         <v>623783</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>636</v>
@@ -2312,13 +2354,13 @@
         <v>667616</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1235</v>
@@ -2327,13 +2369,13 @@
         <v>1291399</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,13 +2390,13 @@
         <v>637649</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>658</v>
@@ -2363,13 +2405,13 @@
         <v>689744</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1270</v>
@@ -2378,18 +2420,18 @@
         <v>1327394</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2401,13 +2443,13 @@
         <v>8697</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -2416,13 +2458,13 @@
         <v>21248</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -2431,19 +2473,19 @@
         <v>29945</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>476</v>
@@ -2452,13 +2494,13 @@
         <v>510450</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>481</v>
@@ -2467,13 +2509,13 @@
         <v>494394</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>957</v>
@@ -2482,13 +2524,13 @@
         <v>1004844</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,13 +2545,13 @@
         <v>519147</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>502</v>
@@ -2518,13 +2560,13 @@
         <v>515642</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>986</v>
@@ -2533,18 +2575,18 @@
         <v>1034789</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2556,13 +2598,13 @@
         <v>12563</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -2571,13 +2613,13 @@
         <v>27417</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -2586,19 +2628,19 @@
         <v>39980</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>381</v>
@@ -2607,13 +2649,13 @@
         <v>374147</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>369</v>
@@ -2622,13 +2664,13 @@
         <v>376569</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>750</v>
@@ -2637,13 +2679,13 @@
         <v>750716</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,13 +2700,13 @@
         <v>386710</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>396</v>
@@ -2673,13 +2715,13 @@
         <v>403986</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>788</v>
@@ -2688,18 +2730,18 @@
         <v>790696</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2711,13 +2753,13 @@
         <v>29858</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>62</v>
@@ -2726,13 +2768,13 @@
         <v>61019</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>90</v>
@@ -2741,19 +2783,19 @@
         <v>90876</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>495</v>
@@ -2762,13 +2804,13 @@
         <v>472608</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>599</v>
@@ -2777,13 +2819,13 @@
         <v>615823</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>1094</v>
@@ -2792,13 +2834,13 @@
         <v>1088432</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,13 +2855,13 @@
         <v>502466</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>661</v>
@@ -2828,13 +2870,13 @@
         <v>676842</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>1184</v>
@@ -2843,13 +2885,13 @@
         <v>1179308</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,13 +2908,13 @@
         <v>73277</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>178</v>
@@ -2881,13 +2923,13 @@
         <v>179686</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>247</v>
@@ -2896,19 +2938,19 @@
         <v>252963</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>3144</v>
@@ -2917,13 +2959,13 @@
         <v>3202248</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>3119</v>
@@ -2932,28 +2974,28 @@
         <v>3199512</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>6263</v>
       </c>
       <c r="N23" s="7">
-        <v>6401760</v>
+        <v>6401759</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,13 +3010,13 @@
         <v>3275525</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>3297</v>
@@ -2983,33 +3025,33 @@
         <v>3379198</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3031,7 +3073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5443FB19-9612-4838-BDB2-1EA2D1F893B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391824F5-295B-47FC-9E88-D0494B7A5576}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3048,7 +3090,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3155,13 +3197,13 @@
         <v>3967</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -3170,13 +3212,13 @@
         <v>8918</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -3185,19 +3227,19 @@
         <v>12884</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>441</v>
@@ -3209,10 +3251,10 @@
         <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>411</v>
@@ -3221,13 +3263,13 @@
         <v>420421</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>852</v>
@@ -3236,13 +3278,13 @@
         <v>869561</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,13 +3299,13 @@
         <v>453105</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>420</v>
@@ -3272,13 +3314,13 @@
         <v>429339</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>865</v>
@@ -3287,18 +3329,18 @@
         <v>882445</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3310,13 +3352,13 @@
         <v>9553</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -3325,13 +3367,13 @@
         <v>33265</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -3340,19 +3382,19 @@
         <v>42818</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>658</v>
@@ -3361,13 +3403,13 @@
         <v>676685</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>539</v>
@@ -3376,13 +3418,13 @@
         <v>575949</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>1197</v>
@@ -3391,13 +3433,13 @@
         <v>1252633</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,13 +3454,13 @@
         <v>686238</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>570</v>
@@ -3427,13 +3469,13 @@
         <v>609214</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1236</v>
@@ -3442,18 +3484,18 @@
         <v>1295451</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3465,13 +3507,13 @@
         <v>4905</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -3480,13 +3522,13 @@
         <v>40482</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -3495,19 +3537,19 @@
         <v>45387</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>644</v>
@@ -3516,13 +3558,13 @@
         <v>675149</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H11" s="7">
         <v>625</v>
@@ -3531,7 +3573,7 @@
         <v>665453</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>97</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>189</v>
@@ -3567,13 +3609,13 @@
         <v>680054</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>663</v>
@@ -3582,13 +3624,13 @@
         <v>705935</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1312</v>
@@ -3597,18 +3639,18 @@
         <v>1385989</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3653,16 +3695,16 @@
         <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>543</v>
@@ -3671,13 +3713,13 @@
         <v>609321</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>512</v>
@@ -3686,13 +3728,13 @@
         <v>584483</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>1055</v>
@@ -3701,13 +3743,13 @@
         <v>1193803</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>139</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,13 +3764,13 @@
         <v>614617</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>535</v>
@@ -3737,13 +3779,13 @@
         <v>611993</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1083</v>
@@ -3752,18 +3794,18 @@
         <v>1226610</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3775,13 +3817,13 @@
         <v>2941</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -3790,13 +3832,13 @@
         <v>27013</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -3805,19 +3847,19 @@
         <v>29955</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>18</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>389</v>
@@ -3826,13 +3868,13 @@
         <v>425403</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H17" s="7">
         <v>380</v>
@@ -3841,13 +3883,13 @@
         <v>420787</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M17" s="7">
         <v>769</v>
@@ -3856,13 +3898,13 @@
         <v>846189</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,13 +3919,13 @@
         <v>428344</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>406</v>
@@ -3892,13 +3934,13 @@
         <v>447800</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>798</v>
@@ -3907,18 +3949,18 @@
         <v>876144</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3930,13 +3972,13 @@
         <v>18893</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
@@ -3945,13 +3987,13 @@
         <v>75841</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M19" s="7">
         <v>83</v>
@@ -3960,19 +4002,19 @@
         <v>94734</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>487</v>
@@ -3981,13 +4023,13 @@
         <v>537938</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>87</v>
+        <v>233</v>
       </c>
       <c r="H20" s="7">
         <v>623</v>
@@ -3996,13 +4038,13 @@
         <v>663971</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M20" s="7">
         <v>1110</v>
@@ -4011,13 +4053,13 @@
         <v>1201909</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4074,13 @@
         <v>556831</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>691</v>
@@ -4047,13 +4089,13 @@
         <v>739812</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>1193</v>
@@ -4062,13 +4104,13 @@
         <v>1296643</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4127,13 @@
         <v>45556</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H22" s="7">
         <v>195</v>
@@ -4100,13 +4142,13 @@
         <v>213030</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M22" s="7">
         <v>235</v>
@@ -4115,19 +4157,19 @@
         <v>258585</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>250</v>
+        <v>166</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>166</v>
+        <v>246</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>3162</v>
@@ -4136,13 +4178,13 @@
         <v>3373632</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H23" s="7">
         <v>3090</v>
@@ -4151,28 +4193,28 @@
         <v>3331064</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M23" s="7">
         <v>6252</v>
       </c>
       <c r="N23" s="7">
-        <v>6704696</v>
+        <v>6704697</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>258</v>
+        <v>176</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>175</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4229,13 @@
         <v>3419188</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>3285</v>
@@ -4202,33 +4244,33 @@
         <v>3544094</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>6487</v>
       </c>
       <c r="N24" s="7">
-        <v>6963281</v>
+        <v>6963282</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4250,7 +4292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E732C2B-89AD-48F7-9B97-F826664D7C2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1254D784-935A-49A2-8B39-DF8A0697244E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4267,7 +4309,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4374,13 +4416,13 @@
         <v>932</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4389,13 +4431,13 @@
         <v>11558</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -4404,19 +4446,19 @@
         <v>12490</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>392</v>
@@ -4425,13 +4467,13 @@
         <v>418531</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H5" s="7">
         <v>392</v>
@@ -4440,13 +4482,13 @@
         <v>384197</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M5" s="7">
         <v>784</v>
@@ -4455,13 +4497,13 @@
         <v>802728</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4518,13 @@
         <v>419463</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>404</v>
@@ -4491,13 +4533,13 @@
         <v>395755</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>797</v>
@@ -4506,18 +4548,18 @@
         <v>815218</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4529,13 +4571,13 @@
         <v>5947</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>51</v>
+        <v>275</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -4544,13 +4586,13 @@
         <v>14998</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>280</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -4559,19 +4601,19 @@
         <v>20944</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>201</v>
+        <v>278</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>52</v>
+        <v>279</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>561</v>
@@ -4580,10 +4622,10 @@
         <v>584549</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>283</v>
@@ -4598,10 +4640,10 @@
         <v>284</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>285</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
         <v>1124</v>
@@ -4610,13 +4652,13 @@
         <v>1133096</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>211</v>
+        <v>286</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>62</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4673,13 @@
         <v>590496</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>579</v>
@@ -4646,13 +4688,13 @@
         <v>563544</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1146</v>
@@ -4661,18 +4703,18 @@
         <v>1154040</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4684,13 +4726,13 @@
         <v>4095</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>291</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -4702,10 +4744,10 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>289</v>
+        <v>126</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>215</v>
+        <v>292</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -4714,19 +4756,19 @@
         <v>31067</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>290</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>291</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>634</v>
@@ -4735,13 +4777,13 @@
         <v>665002</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H11" s="7">
         <v>638</v>
@@ -4750,13 +4792,13 @@
         <v>634414</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>294</v>
+        <v>134</v>
       </c>
       <c r="M11" s="7">
         <v>1272</v>
@@ -4765,13 +4807,13 @@
         <v>1299416</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>295</v>
+        <v>179</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>296</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>100</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4828,13 @@
         <v>669097</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>665</v>
@@ -4801,13 +4843,13 @@
         <v>661386</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1303</v>
@@ -4816,18 +4858,18 @@
         <v>1330483</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4860,7 +4902,7 @@
         <v>301</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -4869,19 +4911,19 @@
         <v>32760</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>576</v>
@@ -4890,13 +4932,13 @@
         <v>639317</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H14" s="7">
         <v>579</v>
@@ -4905,13 +4947,13 @@
         <v>623048</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>310</v>
+        <v>239</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M14" s="7">
         <v>1155</v>
@@ -4920,13 +4962,13 @@
         <v>1262365</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,13 +4983,13 @@
         <v>646048</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>602</v>
@@ -4956,13 +4998,13 @@
         <v>649077</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1184</v>
@@ -4971,18 +5013,18 @@
         <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4994,13 +5036,13 @@
         <v>7624</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -5009,13 +5051,13 @@
         <v>19527</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>319</v>
+        <v>243</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -5024,19 +5066,19 @@
         <v>27151</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>418</v>
@@ -5045,13 +5087,13 @@
         <v>470294</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>273</v>
+        <v>319</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H17" s="7">
         <v>415</v>
@@ -5060,13 +5102,13 @@
         <v>477322</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>325</v>
+        <v>251</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M17" s="7">
         <v>833</v>
@@ -5075,13 +5117,13 @@
         <v>947616</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,13 +5138,13 @@
         <v>477918</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>433</v>
@@ -5111,13 +5153,13 @@
         <v>496849</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>857</v>
@@ -5126,18 +5168,18 @@
         <v>974767</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5149,13 +5191,13 @@
         <v>18015</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>72</v>
+        <v>327</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -5164,13 +5206,13 @@
         <v>48001</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M19" s="7">
         <v>61</v>
@@ -5179,19 +5221,19 @@
         <v>66016</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>607</v>
@@ -5200,13 +5242,13 @@
         <v>573313</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>80</v>
+        <v>335</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>336</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="H20" s="7">
         <v>614</v>
@@ -5251,13 +5293,13 @@
         <v>591328</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>655</v>
@@ -5266,13 +5308,13 @@
         <v>777931</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>1282</v>
@@ -5281,13 +5323,13 @@
         <v>1369259</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,7 +5352,7 @@
         <v>344</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H22" s="7">
         <v>137</v>
@@ -5337,16 +5379,16 @@
         <v>348</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>3188</v>
@@ -5355,13 +5397,13 @@
         <v>3351007</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H23" s="7">
         <v>3201</v>
@@ -5370,13 +5412,13 @@
         <v>3397457</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M23" s="7">
         <v>6389</v>
@@ -5385,13 +5427,13 @@
         <v>6748464</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>357</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>358</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,13 +5448,13 @@
         <v>3394350</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>3338</v>
@@ -5421,13 +5463,13 @@
         <v>3544542</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>6569</v>
@@ -5436,18 +5478,18 @@
         <v>6938892</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5469,7 +5511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D74900-FB29-4D16-8FAA-A88276C66B82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FA7DD0-ADA9-4C9D-9EB7-83E22080D77C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5486,7 +5528,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5593,13 +5635,13 @@
         <v>1739</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -5608,13 +5650,13 @@
         <v>7453</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -5623,19 +5665,19 @@
         <v>9192</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>365</v>
+        <v>298</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>183</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>171</v>
@@ -5644,13 +5686,13 @@
         <v>375940</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H5" s="7">
         <v>203</v>
@@ -5659,13 +5701,13 @@
         <v>347504</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M5" s="7">
         <v>374</v>
@@ -5674,13 +5716,13 @@
         <v>723444</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>191</v>
+        <v>369</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>371</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,13 +5737,13 @@
         <v>377679</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>207</v>
@@ -5710,13 +5752,13 @@
         <v>354957</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>379</v>
@@ -5725,18 +5767,18 @@
         <v>732636</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5748,13 +5790,13 @@
         <v>1877</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -5763,10 +5805,10 @@
         <v>14370</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>375</v>
@@ -5778,19 +5820,19 @@
         <v>16248</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>299</v>
@@ -5799,13 +5841,13 @@
         <v>426519</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="H8" s="7">
         <v>446</v>
@@ -5814,13 +5856,13 @@
         <v>484207</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="M8" s="7">
         <v>745</v>
@@ -5829,13 +5871,13 @@
         <v>910725</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>384</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>385</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,13 +5892,13 @@
         <v>428396</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>460</v>
@@ -5865,13 +5907,13 @@
         <v>498577</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>762</v>
@@ -5880,18 +5922,18 @@
         <v>926973</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5903,13 +5945,13 @@
         <v>7010</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -5918,13 +5960,13 @@
         <v>15031</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>15</v>
+        <v>387</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -5933,19 +5975,19 @@
         <v>22040</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>391</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>540</v>
@@ -5957,10 +5999,10 @@
         <v>392</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>26</v>
+        <v>393</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="H11" s="7">
         <v>821</v>
@@ -5969,13 +6011,13 @@
         <v>568445</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>26</v>
+        <v>395</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M11" s="7">
         <v>1361</v>
@@ -5984,13 +6026,13 @@
         <v>1118687</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>396</v>
+        <v>355</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6005,13 +6047,13 @@
         <v>557252</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>846</v>
@@ -6020,13 +6062,13 @@
         <v>583476</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1392</v>
@@ -6035,18 +6077,18 @@
         <v>1140727</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6058,13 +6100,13 @@
         <v>14822</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>401</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>166</v>
+        <v>402</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -6073,13 +6115,13 @@
         <v>37517</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M13" s="7">
         <v>76</v>
@@ -6088,19 +6130,19 @@
         <v>52339</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>651</v>
@@ -6109,13 +6151,13 @@
         <v>709168</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>175</v>
+        <v>410</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>411</v>
       </c>
       <c r="H14" s="7">
         <v>1079</v>
@@ -6124,28 +6166,28 @@
         <v>709744</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="M14" s="7">
         <v>1730</v>
       </c>
       <c r="N14" s="7">
-        <v>1418912</v>
+        <v>1418913</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,13 +6202,13 @@
         <v>723990</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>1141</v>
@@ -6175,33 +6217,33 @@
         <v>747261</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6213,13 +6255,13 @@
         <v>22137</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>418</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>290</v>
+        <v>419</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="H16" s="7">
         <v>72</v>
@@ -6228,13 +6270,13 @@
         <v>40704</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="M16" s="7">
         <v>98</v>
@@ -6243,19 +6285,19 @@
         <v>62841</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>636</v>
@@ -6264,13 +6306,13 @@
         <v>576949</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>427</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>295</v>
+        <v>429</v>
       </c>
       <c r="H17" s="7">
         <v>928</v>
@@ -6279,13 +6321,13 @@
         <v>552872</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="M17" s="7">
         <v>1564</v>
@@ -6294,13 +6336,13 @@
         <v>1129821</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6315,13 +6357,13 @@
         <v>599086</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>1000</v>
@@ -6330,13 +6372,13 @@
         <v>593576</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>1662</v>
@@ -6345,18 +6387,18 @@
         <v>1192662</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6368,13 +6410,13 @@
         <v>23958</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="H19" s="7">
         <v>151</v>
@@ -6383,13 +6425,13 @@
         <v>80590</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="M19" s="7">
         <v>190</v>
@@ -6398,19 +6440,19 @@
         <v>104548</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>335</v>
+        <v>442</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>988</v>
@@ -6419,13 +6461,13 @@
         <v>673276</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="H20" s="7">
         <v>1554</v>
@@ -6434,13 +6476,13 @@
         <v>944425</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="M20" s="7">
         <v>2542</v>
@@ -6449,13 +6491,13 @@
         <v>1617701</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>341</v>
+        <v>451</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6470,13 +6512,13 @@
         <v>697234</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>1705</v>
@@ -6485,13 +6527,13 @@
         <v>1025015</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>2732</v>
@@ -6500,13 +6542,13 @@
         <v>1722249</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6523,13 +6565,13 @@
         <v>71542</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>70</v>
+        <v>455</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>279</v>
+        <v>36</v>
       </c>
       <c r="H22" s="7">
         <v>328</v>
@@ -6538,13 +6580,13 @@
         <v>195666</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="M22" s="7">
         <v>417</v>
@@ -6553,34 +6595,34 @@
         <v>267209</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>3285</v>
       </c>
       <c r="D23" s="7">
-        <v>3312095</v>
+        <v>3312094</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>284</v>
+        <v>45</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>79</v>
+        <v>462</v>
       </c>
       <c r="H23" s="7">
         <v>5031</v>
@@ -6589,13 +6631,13 @@
         <v>3607196</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="M23" s="7">
         <v>8316</v>
@@ -6604,13 +6646,13 @@
         <v>6919289</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6622,16 +6664,16 @@
         <v>3374</v>
       </c>
       <c r="D24" s="7">
-        <v>3383637</v>
+        <v>3383636</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>5359</v>
@@ -6640,13 +6682,13 @@
         <v>3802862</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>8733</v>
@@ -6655,18 +6697,18 @@
         <v>7186498</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11FDEEF6-A035-4B5D-8A43-69554E154F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{446D855F-F889-466D-894F-B01EEC00C30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB205831-58D9-4800-B610-DABC89379A67}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6E6F328F-535F-4320-8F16-45ACC4A8B4EB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="513">
   <si>
     <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -128,7 +128,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,76%</t>
@@ -185,7 +185,7 @@
     <t>98,23%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>2,17%</t>
@@ -242,7 +242,7 @@
     <t>98,1%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>1,68%</t>
@@ -299,7 +299,7 @@
     <t>98,02%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>3,25%</t>
@@ -356,61 +356,118 @@
     <t>96,36%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
   </si>
   <si>
     <t>2,24%</t>
@@ -707,264 +764,318 @@
     <t>95,07%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
   </si>
   <si>
     <t>5,91%</t>
   </si>
   <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
   </si>
   <si>
     <t>94,09%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
     <t>97,41%</t>
   </si>
   <si>
@@ -995,9 +1106,6 @@
     <t>1,85%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
     <t>98,4%</t>
   </si>
   <si>
@@ -1016,58 +1124,97 @@
     <t>97,21%</t>
   </si>
   <si>
-    <t>95,77%</t>
-  </si>
-  <si>
     <t>98,15%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
   </si>
   <si>
     <t>1,28%</t>
@@ -1115,334 +1262,322 @@
     <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
   </si>
   <si>
     <t>99,56%</t>
   </si>
   <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
   </si>
   <si>
     <t>98,74%</t>
   </si>
   <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
   </si>
   <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
   </si>
 </sst>
 </file>
@@ -1854,8 +1989,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558AB173-F575-4258-8E36-0D5998F337BA}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B35070E-DEE2-4465-98CF-0DD20838623F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2747,10 +2882,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>29858</v>
+        <v>12376</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -2762,10 +2897,10 @@
         <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="I19" s="7">
-        <v>61019</v>
+        <v>36931</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>109</v>
@@ -2777,10 +2912,10 @@
         <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="N19" s="7">
-        <v>90876</v>
+        <v>49307</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>112</v>
@@ -2798,10 +2933,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>495</v>
+        <v>291</v>
       </c>
       <c r="D20" s="7">
-        <v>472608</v>
+        <v>280207</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>115</v>
@@ -2813,10 +2948,10 @@
         <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>599</v>
+        <v>331</v>
       </c>
       <c r="I20" s="7">
-        <v>615823</v>
+        <v>306003</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>118</v>
@@ -2828,10 +2963,10 @@
         <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>1094</v>
+        <v>622</v>
       </c>
       <c r="N20" s="7">
-        <v>1088432</v>
+        <v>586210</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>121</v>
@@ -2849,10 +2984,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -2864,10 +2999,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -2879,10 +3014,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -2896,55 +3031,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="D22" s="7">
-        <v>73277</v>
+        <v>17482</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="I22" s="7">
-        <v>179686</v>
+        <v>24088</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>247</v>
+        <v>38</v>
       </c>
       <c r="N22" s="7">
-        <v>252963</v>
+        <v>41569</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,49 +3088,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>3144</v>
+        <v>204</v>
       </c>
       <c r="D23" s="7">
-        <v>3202248</v>
+        <v>192401</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>3119</v>
+        <v>268</v>
       </c>
       <c r="I23" s="7">
-        <v>3199512</v>
+        <v>309820</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>6263</v>
+        <v>472</v>
       </c>
       <c r="N23" s="7">
-        <v>6401759</v>
+        <v>502222</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,63 +3139,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>69</v>
+      </c>
+      <c r="D25" s="7">
+        <v>73277</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>178</v>
+      </c>
+      <c r="I25" s="7">
+        <v>179686</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>247</v>
+      </c>
+      <c r="N25" s="7">
+        <v>252963</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3144</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3202248</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3119</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3199511</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6263</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6401759</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3213</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3275525</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>6510</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6654722</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3073,8 +3364,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391824F5-295B-47FC-9E88-D0494B7A5576}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049E4CEB-74BC-42C8-97AE-5C55E170C8D7}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3090,7 +3381,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3197,13 +3488,13 @@
         <v>3967</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -3212,13 +3503,13 @@
         <v>8918</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -3227,13 +3518,13 @@
         <v>12884</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,13 +3539,13 @@
         <v>449138</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>411</v>
@@ -3263,13 +3554,13 @@
         <v>420421</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>852</v>
@@ -3278,13 +3569,13 @@
         <v>869561</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3643,13 @@
         <v>9553</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -3367,13 +3658,13 @@
         <v>33265</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -3382,13 +3673,13 @@
         <v>42818</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,13 +3694,13 @@
         <v>676685</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>539</v>
@@ -3418,13 +3709,13 @@
         <v>575949</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>1197</v>
@@ -3433,13 +3724,13 @@
         <v>1252633</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3798,13 @@
         <v>4905</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -3525,10 +3816,10 @@
         <v>89</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -3537,13 +3828,13 @@
         <v>45387</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,10 +3849,10 @@
         <v>675149</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>41</v>
@@ -3576,10 +3867,10 @@
         <v>97</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>1269</v>
@@ -3588,13 +3879,13 @@
         <v>1340602</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,13 +3953,13 @@
         <v>5296</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -3677,13 +3968,13 @@
         <v>27510</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -3692,13 +3983,13 @@
         <v>32807</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>88</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,13 +4004,13 @@
         <v>609321</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>512</v>
@@ -3728,13 +4019,13 @@
         <v>584483</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>1055</v>
@@ -3743,10 +4034,10 @@
         <v>1193803</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>98</v>
@@ -3817,13 +4108,13 @@
         <v>2941</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -3832,13 +4123,13 @@
         <v>27013</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -3850,10 +4141,10 @@
         <v>18</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,13 +4159,13 @@
         <v>425403</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="H17" s="7">
         <v>380</v>
@@ -3883,13 +4174,13 @@
         <v>420787</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="M17" s="7">
         <v>769</v>
@@ -3901,10 +4192,10 @@
         <v>27</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,49 +4257,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>18893</v>
+        <v>10145</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="H19" s="7">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="I19" s="7">
-        <v>75841</v>
+        <v>28372</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="M19" s="7">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="N19" s="7">
-        <v>94734</v>
+        <v>38517</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,49 +4308,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>487</v>
+        <v>272</v>
       </c>
       <c r="D20" s="7">
-        <v>537938</v>
+        <v>297650</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="H20" s="7">
-        <v>623</v>
+        <v>318</v>
       </c>
       <c r="I20" s="7">
-        <v>663971</v>
+        <v>324687</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="M20" s="7">
-        <v>1110</v>
+        <v>590</v>
       </c>
       <c r="N20" s="7">
-        <v>1201909</v>
+        <v>622337</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,10 +4359,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>502</v>
+        <v>281</v>
       </c>
       <c r="D21" s="7">
-        <v>556831</v>
+        <v>307795</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -4083,10 +4374,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>691</v>
+        <v>343</v>
       </c>
       <c r="I21" s="7">
-        <v>739812</v>
+        <v>353059</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -4098,10 +4389,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>1193</v>
+        <v>624</v>
       </c>
       <c r="N21" s="7">
-        <v>1296643</v>
+        <v>660854</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -4115,55 +4406,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>45556</v>
+        <v>8748</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="H22" s="7">
-        <v>195</v>
+        <v>43</v>
       </c>
       <c r="I22" s="7">
-        <v>213030</v>
+        <v>47469</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="M22" s="7">
+        <v>49</v>
+      </c>
+      <c r="N22" s="7">
+        <v>56217</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="M22" s="7">
-        <v>235</v>
-      </c>
-      <c r="N22" s="7">
-        <v>258585</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>246</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,49 +4463,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>3162</v>
+        <v>215</v>
       </c>
       <c r="D23" s="7">
-        <v>3373632</v>
+        <v>240288</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="H23" s="7">
-        <v>3090</v>
+        <v>305</v>
       </c>
       <c r="I23" s="7">
-        <v>3331064</v>
+        <v>339284</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M23" s="7">
+        <v>520</v>
+      </c>
+      <c r="N23" s="7">
+        <v>579572</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M23" s="7">
-        <v>6252</v>
-      </c>
-      <c r="N23" s="7">
-        <v>6704697</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,63 +4514,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>221</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249036</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>348</v>
+      </c>
+      <c r="I24" s="7">
+        <v>386753</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>569</v>
+      </c>
+      <c r="N24" s="7">
+        <v>635789</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>40</v>
+      </c>
+      <c r="D25" s="7">
+        <v>45556</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H25" s="7">
+        <v>195</v>
+      </c>
+      <c r="I25" s="7">
+        <v>213030</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="M25" s="7">
+        <v>235</v>
+      </c>
+      <c r="N25" s="7">
+        <v>258585</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3162</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3373632</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3090</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3331064</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6252</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6704697</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3202</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3419188</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>3285</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544094</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>6487</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6963282</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4292,8 +4739,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1254D784-935A-49A2-8B39-DF8A0697244E}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1894E0-FC8E-42EF-A843-6459CB5997C6}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4309,7 +4756,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4416,13 +4863,13 @@
         <v>932</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4431,13 +4878,13 @@
         <v>11558</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -4446,13 +4893,13 @@
         <v>12490</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,13 +4914,13 @@
         <v>418531</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="H5" s="7">
         <v>392</v>
@@ -4482,13 +4929,13 @@
         <v>384197</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="M5" s="7">
         <v>784</v>
@@ -4497,13 +4944,13 @@
         <v>802728</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +5018,13 @@
         <v>5947</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -4586,13 +5033,13 @@
         <v>14998</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -4601,13 +5048,13 @@
         <v>20944</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,13 +5069,13 @@
         <v>584549</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="H8" s="7">
         <v>563</v>
@@ -4637,10 +5084,10 @@
         <v>548546</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -4652,13 +5099,13 @@
         <v>1133096</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,13 +5173,13 @@
         <v>4095</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -4744,10 +5191,10 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -4756,10 +5203,10 @@
         <v>31067</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>87</v>
@@ -4777,13 +5224,13 @@
         <v>665002</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="H11" s="7">
         <v>638</v>
@@ -4795,10 +5242,10 @@
         <v>23</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="M11" s="7">
         <v>1272</v>
@@ -4807,13 +5254,13 @@
         <v>1299416</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>96</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,13 +5328,13 @@
         <v>6731</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -4896,13 +5343,13 @@
         <v>26029</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>229</v>
+        <v>337</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -4911,13 +5358,13 @@
         <v>32760</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,13 +5379,13 @@
         <v>639317</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="H14" s="7">
         <v>579</v>
@@ -4947,13 +5394,13 @@
         <v>623048</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>239</v>
+        <v>344</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="M14" s="7">
         <v>1155</v>
@@ -4962,13 +5409,13 @@
         <v>1262365</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,13 +5483,13 @@
         <v>7624</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -5051,13 +5498,13 @@
         <v>19527</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -5066,13 +5513,13 @@
         <v>27151</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>318</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,13 +5534,13 @@
         <v>470294</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="H17" s="7">
         <v>415</v>
@@ -5102,13 +5549,13 @@
         <v>477322</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="M17" s="7">
         <v>833</v>
@@ -5117,13 +5564,13 @@
         <v>947616</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>325</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,49 +5632,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>18015</v>
+        <v>7001</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="H19" s="7">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I19" s="7">
-        <v>48001</v>
+        <v>21914</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="M19" s="7">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="N19" s="7">
-        <v>66016</v>
+        <v>28915</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,49 +5683,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>607</v>
+        <v>318</v>
       </c>
       <c r="D20" s="7">
-        <v>573313</v>
+        <v>327329</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="H20" s="7">
-        <v>614</v>
+        <v>333</v>
       </c>
       <c r="I20" s="7">
-        <v>729930</v>
+        <v>355848</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="M20" s="7">
-        <v>1221</v>
+        <v>651</v>
       </c>
       <c r="N20" s="7">
-        <v>1303243</v>
+        <v>683177</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,10 +5734,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -5302,10 +5749,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -5317,10 +5764,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -5334,55 +5781,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D22" s="7">
-        <v>43343</v>
+        <v>11014</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>68</v>
+        <v>380</v>
       </c>
       <c r="H22" s="7">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="I22" s="7">
-        <v>147085</v>
+        <v>26087</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>345</v>
+        <v>35</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>346</v>
+        <v>231</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="M22" s="7">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="N22" s="7">
-        <v>190428</v>
+        <v>37101</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>152</v>
+        <v>383</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,49 +5838,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>3188</v>
+        <v>289</v>
       </c>
       <c r="D23" s="7">
-        <v>3351007</v>
+        <v>245984</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>77</v>
+        <v>386</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="H23" s="7">
-        <v>3201</v>
+        <v>281</v>
       </c>
       <c r="I23" s="7">
-        <v>3397457</v>
+        <v>374082</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>352</v>
+        <v>43</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>354</v>
+        <v>239</v>
       </c>
       <c r="M23" s="7">
-        <v>6389</v>
+        <v>570</v>
       </c>
       <c r="N23" s="7">
-        <v>6748464</v>
+        <v>620066</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>356</v>
+        <v>390</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>160</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,63 +5889,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>43</v>
+      </c>
+      <c r="D25" s="7">
+        <v>43343</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="7">
+        <v>137</v>
+      </c>
+      <c r="I25" s="7">
+        <v>147085</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="M25" s="7">
+        <v>180</v>
+      </c>
+      <c r="N25" s="7">
+        <v>190428</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3188</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3351007</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3201</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3397457</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6389</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6748464</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5511,8 +6114,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FA7DD0-ADA9-4C9D-9EB7-83E22080D77C}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDF6F79-DED4-4019-B358-9CD9EEC2041C}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5528,7 +6131,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5632,46 +6235,46 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1739</v>
+        <v>1805</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>358</v>
+        <v>407</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>359</v>
+        <v>408</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>7453</v>
+        <v>6728</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>9192</v>
+        <v>8533</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>298</v>
+        <v>214</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,28 +6286,28 @@
         <v>171</v>
       </c>
       <c r="D5" s="7">
-        <v>375940</v>
+        <v>398182</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>364</v>
+        <v>412</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="H5" s="7">
         <v>203</v>
       </c>
       <c r="I5" s="7">
-        <v>347504</v>
+        <v>306472</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>367</v>
+        <v>415</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>20</v>
@@ -5713,16 +6316,16 @@
         <v>374</v>
       </c>
       <c r="N5" s="7">
-        <v>723444</v>
+        <v>704654</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>306</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,7 +6337,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -5749,7 +6352,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -5764,7 +6367,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -5787,46 +6390,46 @@
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>1877</v>
+        <v>1891</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
       </c>
       <c r="I7" s="7">
-        <v>14370</v>
+        <v>13809</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
       </c>
       <c r="N7" s="7">
-        <v>16248</v>
+        <v>15700</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>302</v>
+        <v>68</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>422</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>376</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,46 +6441,46 @@
         <v>299</v>
       </c>
       <c r="D8" s="7">
-        <v>426519</v>
+        <v>421656</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="H8" s="7">
         <v>446</v>
       </c>
       <c r="I8" s="7">
-        <v>484207</v>
+        <v>497695</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="M8" s="7">
         <v>745</v>
       </c>
       <c r="N8" s="7">
-        <v>910725</v>
+        <v>919351</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>383</v>
+        <v>83</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5889,7 +6492,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -5904,7 +6507,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -5919,7 +6522,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -5942,46 +6545,46 @@
         <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>7010</v>
+        <v>6610</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>384</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
       </c>
       <c r="I10" s="7">
-        <v>15031</v>
+        <v>14263</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>388</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>389</v>
+        <v>335</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
       </c>
       <c r="N10" s="7">
-        <v>22040</v>
+        <v>20873</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>348</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,46 +6596,46 @@
         <v>540</v>
       </c>
       <c r="D11" s="7">
-        <v>550242</v>
+        <v>529728</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>392</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="H11" s="7">
         <v>821</v>
       </c>
       <c r="I11" s="7">
-        <v>568445</v>
+        <v>528205</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>396</v>
+        <v>343</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>397</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
         <v>1361</v>
       </c>
       <c r="N11" s="7">
-        <v>1118687</v>
+        <v>1057933</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>355</v>
+        <v>439</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6044,7 +6647,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -6059,7 +6662,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -6074,7 +6677,7 @@
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -6097,46 +6700,46 @@
         <v>14</v>
       </c>
       <c r="D13" s="7">
-        <v>14822</v>
+        <v>14273</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>401</v>
+        <v>441</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>402</v>
+        <v>442</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
       </c>
       <c r="I13" s="7">
-        <v>37517</v>
+        <v>35698</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>405</v>
+        <v>445</v>
       </c>
       <c r="M13" s="7">
         <v>76</v>
       </c>
       <c r="N13" s="7">
-        <v>52339</v>
+        <v>49970</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>407</v>
+        <v>447</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>408</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,46 +6751,46 @@
         <v>651</v>
       </c>
       <c r="D14" s="7">
-        <v>709168</v>
+        <v>873513</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>409</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>410</v>
+        <v>448</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>411</v>
+        <v>449</v>
       </c>
       <c r="H14" s="7">
         <v>1079</v>
       </c>
       <c r="I14" s="7">
-        <v>709744</v>
+        <v>677183</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>412</v>
+        <v>450</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>413</v>
+        <v>451</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>414</v>
+        <v>452</v>
       </c>
       <c r="M14" s="7">
         <v>1730</v>
       </c>
       <c r="N14" s="7">
-        <v>1418913</v>
+        <v>1550697</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>415</v>
+        <v>453</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>416</v>
+        <v>23</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>417</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,7 +6802,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -6214,7 +6817,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -6229,7 +6832,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -6252,46 +6855,46 @@
         <v>26</v>
       </c>
       <c r="D16" s="7">
-        <v>22137</v>
+        <v>21517</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>418</v>
+        <v>455</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>419</v>
+        <v>456</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>420</v>
+        <v>457</v>
       </c>
       <c r="H16" s="7">
         <v>72</v>
       </c>
       <c r="I16" s="7">
-        <v>40704</v>
+        <v>37866</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>421</v>
+        <v>458</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>422</v>
+        <v>146</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>423</v>
+        <v>459</v>
       </c>
       <c r="M16" s="7">
         <v>98</v>
       </c>
       <c r="N16" s="7">
-        <v>62841</v>
+        <v>59383</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>425</v>
+        <v>461</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6303,46 +6906,46 @@
         <v>636</v>
       </c>
       <c r="D17" s="7">
-        <v>576949</v>
+        <v>538720</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>427</v>
+        <v>463</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>428</v>
+        <v>464</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>429</v>
+        <v>465</v>
       </c>
       <c r="H17" s="7">
         <v>928</v>
       </c>
       <c r="I17" s="7">
-        <v>552872</v>
+        <v>507021</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>430</v>
+        <v>466</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>431</v>
+        <v>467</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>432</v>
+        <v>155</v>
       </c>
       <c r="M17" s="7">
         <v>1564</v>
       </c>
       <c r="N17" s="7">
-        <v>1129821</v>
+        <v>1045741</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>433</v>
+        <v>468</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>434</v>
+        <v>469</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>435</v>
+        <v>470</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6354,7 +6957,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>28</v>
@@ -6369,7 +6972,7 @@
         <v>1000</v>
       </c>
       <c r="I18" s="7">
-        <v>593576</v>
+        <v>544887</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>28</v>
@@ -6384,7 +6987,7 @@
         <v>1662</v>
       </c>
       <c r="N18" s="7">
-        <v>1192662</v>
+        <v>1105124</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>28</v>
@@ -6404,49 +7007,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D19" s="7">
-        <v>23958</v>
+        <v>12388</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>436</v>
+        <v>471</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>438</v>
+        <v>146</v>
       </c>
       <c r="H19" s="7">
-        <v>151</v>
+        <v>53</v>
       </c>
       <c r="I19" s="7">
-        <v>80590</v>
+        <v>26168</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>439</v>
+        <v>472</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>440</v>
+        <v>473</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>441</v>
+        <v>474</v>
       </c>
       <c r="M19" s="7">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="N19" s="7">
-        <v>104548</v>
+        <v>38556</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>444</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6455,49 +7058,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>988</v>
+        <v>551</v>
       </c>
       <c r="D20" s="7">
-        <v>673276</v>
+        <v>355777</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>445</v>
+        <v>478</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>446</v>
+        <v>155</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="H20" s="7">
-        <v>1554</v>
+        <v>774</v>
       </c>
       <c r="I20" s="7">
-        <v>944425</v>
+        <v>582200</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>448</v>
+        <v>479</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="M20" s="7">
-        <v>2542</v>
+        <v>1325</v>
       </c>
       <c r="N20" s="7">
-        <v>1617701</v>
+        <v>937977</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6506,10 +7109,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1027</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697234</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -6521,10 +7124,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>1705</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1025015</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -6536,10 +7139,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>2732</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1722249</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -6553,55 +7156,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="D22" s="7">
-        <v>71542</v>
+        <v>10392</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>36</v>
+        <v>487</v>
       </c>
       <c r="H22" s="7">
-        <v>328</v>
+        <v>98</v>
       </c>
       <c r="I22" s="7">
-        <v>195666</v>
+        <v>46637</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>456</v>
+        <v>488</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>458</v>
+        <v>490</v>
       </c>
       <c r="M22" s="7">
-        <v>417</v>
+        <v>118</v>
       </c>
       <c r="N22" s="7">
-        <v>267209</v>
+        <v>57029</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>460</v>
+        <v>492</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>71</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6610,49 +7213,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>3285</v>
+        <v>437</v>
       </c>
       <c r="D23" s="7">
-        <v>3312094</v>
+        <v>271877</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>495</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H23" s="7">
-        <v>5031</v>
+        <v>780</v>
       </c>
       <c r="I23" s="7">
-        <v>3607196</v>
+        <v>377757</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>463</v>
+        <v>497</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>464</v>
+        <v>498</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="M23" s="7">
-        <v>8316</v>
+        <v>1217</v>
       </c>
       <c r="N23" s="7">
-        <v>6919289</v>
+        <v>649634</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>466</v>
+        <v>500</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>467</v>
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,63 +7264,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>457</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282269</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>878</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424394</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1335</v>
+      </c>
+      <c r="N24" s="7">
+        <v>706663</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>89</v>
+      </c>
+      <c r="D25" s="7">
+        <v>68876</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="H25" s="7">
+        <v>328</v>
+      </c>
+      <c r="I25" s="7">
+        <v>181169</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="M25" s="7">
+        <v>417</v>
+      </c>
+      <c r="N25" s="7">
+        <v>250045</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3285</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3389454</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5031</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3476533</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8316</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6865987</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3374</v>
       </c>
-      <c r="D24" s="7">
-        <v>3383636</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3458330</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>5359</v>
       </c>
-      <c r="I24" s="7">
-        <v>3802862</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3657702</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>8733</v>
       </c>
-      <c r="N24" s="7">
-        <v>7186498</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>7116032</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
